--- a/big-data/big-data-capstone/project/data/beer_n_Desperados Red.xlsx
+++ b/big-data/big-data-capstone/project/data/beer_n_Desperados Red.xlsx
@@ -496,7 +496,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>dekris(1,357)
+          <t>dekris(1,361)
 🇵🇱Olkusz, Poland
 1.4April 12, 2022
 Degustacja "złocistego trunku" bez opisowej oceny     ........................
@@ -566,7 +566,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Grisza77(1,938)
+          <t>Grisza77(1,939)
 🇵🇱Poznań, Poland
 2.4May 11, 2021
 Czerwone, klarowne piwo o całkiem obfitej pianie, która zdobi szkło i pozostaje do końca w formie warstewki na powierzchni. Aromat nikły. W smaku lekko kwaskowe i lekko słodkie.…
@@ -994,7 +994,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Grumbo(16,355)
+          <t>Grumbo(16,420)
 🇬🇧Ipswich, England
 2.0April 12, 2020
 11/4/2020. Don't know how we got this, it's been sitting in the fridge quite a while. Thought I'd open it up as it's taking up valuable space. Poured amber red with a bubbly white head.…
@@ -1134,7 +1134,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>mithe(3,016)
+          <t>mithe(3,020)
 🇨🇿Opava &amp; Brno, Czech Republic
 2.1January 27, 2020
 (bottle 0,33l from Levné Potraviny Brno) Overall: Exotic fruity lemonade.
@@ -1345,7 +1345,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>maciejgmaciej(2,853)
+          <t>maciejgmaciej(2,856)
 🇵🇱Poland
 2.4May 28, 2019
 Dopóki zimne to taki spoko napój, nieco za słodki, ale nie taki zły. Po ociepleniu zły. Wg mnie lepszy od niektórych lagerów, mimo że nie do końca to jest piwo w ogóle.
@@ -1485,7 +1485,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>biilz(1,773)
+          <t>biilz(1,776)
 🇪🇸Spain
 2.7January 10, 2019
 Аромат пряный, похож на бруснику или калину, легкая травянистость. Цвет красный, пена белая, средняя по размеру, шипит как Шнапс. Вкус странный, слегка…
@@ -1556,7 +1556,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>koorchuck(3,728)
+          <t>koorchuck(3,733)
 🇵🇱Nacpolsk, Poland
 1.9December 12, 2018
 Ocena wystawiona na podstawie wspomnień z degustacji w ramach uzupełnienia profilu.
@@ -1695,7 +1695,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>ciupakabra(1,469)
+          <t>ciupakabra(1,472)
 🇵🇱Poland
 1.9August 17, 2018
 Kolor: Różowo-rubinowy, klarowny. Piana: Biała, dość obfita, drobnopęcherzykowa, szybko redukuje się do pierścienia. Zapach: Słodki, czerwone owoce, ale bardziej jak jakaś…
@@ -1903,7 +1903,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>deanso(15,168)
+          <t>deanso(15,171)
 🇬🇧Doncaster, England
 2.2May 31, 2018
 33cl bottle.
@@ -2668,7 +2668,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>caketm(4,444)
+          <t>caketm(4,453)
 🇵🇱Czestochowa, Poland
 0.9January 11, 2018
 Butelka 0,66 l. Minimalnie gorsze niż oryginał. Te piwa to jednak ciężka katorga.
@@ -2946,7 +2946,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Kleg(2,367)
+          <t>Kleg(2,371)
 🇺🇸The Beach, United States
 1.8September 3, 2017
 Bottle from Saint Martin. Clear reddish amber pour with a foamy off-white head and great retention. Very good lacing. Flat mouthfeel. Strange tequila and sour fruit taste. Not a fan. 5.9…
@@ -4126,7 +4126,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>MatiF96(1,429)
+          <t>MatiF96(1,430)
 🇵🇱Poland
 2.2February 26, 2019
 Uzupełnienie profilu
@@ -4197,7 +4197,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>ManVsBeer(17,019)
+          <t>ManVsBeer(17,023)
 🇬🇧Hebden Bridge, England
 1.9August 8, 2016
 Bottle @ The Brun Lea, Burnley. Mid clear red with a thick bubbly head. Has a mild sweet aroma and taste with the tequila et al providing a flavour that’s not overbearing. Has a sticky…
@@ -4267,7 +4267,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>nilsas(7,961)
+          <t>nilsas(7,972)
 🇳🇴Bryne, Norway
 2.3July 1, 2016
 Lukt: Sitron.…
@@ -4337,7 +4337,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>imdownthepub(23,318)
+          <t>imdownthepub(23,350)
 🇬🇧Banbury, England
 1.1June 14, 2016
 Bottled, 330ml at a Wetherspoons, just a small sample for me. Pink with mo head. There is an astringent perfumed nose leading to an artificial fruity, floral flavour. Pretty disgusting.
@@ -4686,7 +4686,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Beerhunter111(38,166)
+          <t>Beerhunter111(38,181)
 🇩🇪Beerland, Germany
 1.2May 18, 2016
 33cl bottle. Pours clear orange red colour with a mid-sized light reddish head. Aroma of sweet fruits, chemicals. Taste of sugar, red berries, citrons, chemcial, meh...
@@ -4755,7 +4755,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>hvn(561)
+          <t>hvn(562)
 🇬🇱Nuuk, Greenland
 1.9April 29, 2016
 Spróbować można, jednakże z piwem ma to malo wspólnego. Pachnie i smakuje dziwnie. Jakieś takie kwaśne. Jak lemoniada, goryczki równie dużo.…
@@ -5243,7 +5243,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>sjorsvdg(1,033)
+          <t>sjorsvdg(1,034)
 🇳🇱Netherlands
 2.1January 21, 2016
 Een frisdrankachtige smaak, waarin bier een ondertoon heeft. Hoofdzakelijk is een bessenachtige, licht zoete smaak aanwezig. Op de achtergrond het licht bittere van een pilsener.
@@ -5382,7 +5382,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Rubin77(7,796)
+          <t>Rubin77(7,803)
 🇧🇪Brussels, Belgium
 2.0December 28, 2015
 F: huge, lasting, off-white.
@@ -5453,7 +5453,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>ischas(2,035)
+          <t>ischas(2,039)
 1.8October 31, 2015
 0,33 l Flasche. Aroma: Rote Beeren, säuerlich, etwas künstlich. Erscheinung: Rotes Bier, weniger, leicht rosa Schaum, der aber eine schöne Gardine bildet. Geschmack: Säuerlich, leicht süß,…
 Show more
@@ -5522,7 +5522,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Erzengel(13,937)
+          <t>Erzengel(13,941)
 🇩🇪Saarland &amp; Düsseldorf, Germany
 1.8October 22, 2015
 *Süßlich komisch. Viel chemischen rote Beeren, ein Hauch Tequila im Hintergrund, süßlich-künstlich...
@@ -5591,10 +5591,10 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>LazyPyro(6,587)
+          <t>LazyPyro(6,599)
 🇬🇧Cheltenham, England
 1.5October 9, 2015
-400ml bottle from Beers of Europe. Pours a bright red colour like a berry fruit cider, small pinkish head that disappears quickly. Aroma is similar to standard Desperados bordering o…
+400ml bottle from Beers of Europe. Pours a bright red colour like a berry fruit cider, small pinkish head that disappears quickly. Aroma is similar to standard Desperados bordering on…
 Show more
 Aroma
 4
@@ -5939,7 +5939,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>MarkoNm(5,581)
+          <t>MarkoNm(5,582)
 🇸🇮Novo mesto, Slovenia
 1.8July 27, 2015
 Pours a clear red color, topped with a small pink(ish)-white head, no retention. Fruits aroma, sweet berries, lemon and citruses. Taste is sweet and sugary, acidic. Not bad for a juicy…
@@ -6493,7 +6493,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>allmyvinyl(17,005)
+          <t>allmyvinyl(17,010)
 🇬🇧Edinburgh, Scotland
 2.2May 26, 2015
 Desperado, why don’t you come to your senses?
@@ -6703,7 +6703,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>FatPhil(23,239)
+          <t>FatPhil(23,252)
 🇪🇪Tallinn, Estonia
 1.1December 6, 2014
 600ml bottle (Petrol Station in Poland)…
@@ -6773,7 +6773,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Marduk(17,800)
+          <t>Marduk(17,850)
 🇪🇪Reval, Estonia
 1.0December 5, 2014
 500ml bottle. As soon as I saw you, so bright like christmas tree, in that supermarket at Zywiec, I knew I have to have you. I wanted you so bad, like polish police tourists. You didn’t…
@@ -6983,7 +6983,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>mjs(10,643)
+          <t>mjs(10,650)
 🇫🇮Helsinki, Finland
 1.0November 22, 2014
 (Bottle, 0.4 l, courtesy of FatPhil, 20141122) The beer poured red and clear. Its head wasn’t there. Aroma had strawberry soda and chilli sauce. Palate was light bodied with medium…
@@ -7053,7 +7053,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>tiong(14,759)
+          <t>tiong(14,768)
 🇫🇮Espoo, Finland
 1.2November 22, 2014
 330ml bottle…
@@ -7123,7 +7123,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>VastActiv(13,913)
+          <t>VastActiv(13,916)
 🇫🇮Espoo/Tampere, Finland
 0.8November 22, 2014
 Bottle 0.5l at home, Helsinki. Thanks to Marduk/FatPhil. Colour is clear red with no head. Aromas and flavours: Sweetness, berries, strawberries, soda and artificial sugar. This is no beer.…
@@ -7470,7 +7470,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Borup(22,599)
+          <t>Borup(22,600)
 🇩🇰Albertslund, Denmark
 1.7September 7, 2014
 50 cl. can. Pink colour with an off-white head. Aroma and flavour of berries, spice, guarana and tequila.
@@ -7956,7 +7956,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>JefVerstraete(6,334)
+          <t>JefVerstraete(6,341)
 🇧🇪Belgium
 1.1July 7, 2014
 Can @ RBBSG, 2014. Red colour. Medium carbonation. Aroma of red fruit, lemonade and toilet cleaner. Chemical and artificial taste. Horrible.
@@ -8651,7 +8651,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Wim(6,144)
+          <t>Wim(6,150)
 🇧🇪Weelde, Belgium
 2.0January 19, 2014
 at my home 0.50l can red amber coloured body with an off white head and a spicy fruity hop aroma a sweet fruity hop taste a sweet alcholic little bitter finish
@@ -8860,7 +8860,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Kita(4,006)
+          <t>Kita(4,011)
 🇸🇮Koper, Slovenia
 0.8October 31, 2013
 Canned, 0.50l. Clear amber orange color with large dissipating frothy pinkish head and sparkling appearance. Aroma of grainy malt, tequila, guarana and other artificial crap. Taste is artifici…
@@ -9072,7 +9072,7 @@
           <t>Calisky(4,947)
 🇫🇷ALSACE, France
 1.6April 30, 2020
-Belle couleur rouge, grosse mousse blanche. Parfum de fruits confits... artificiels. Arome cerise-agrume-aspartam. Gout sucré aspartam-artificiel. Pas degueulasse, mais pour ceux q…
+Belle couleur rouge, grosse mousse blanche. Parfum de fruits confits... artificiels. Arome cerise-agrume-aspartam. Gout sucré aspartam-artificiel. Pas degueulasse, mais pour ceux qu…
 Show more
 Aroma
 3
@@ -9209,7 +9209,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>BlackHaddock(13,417)
+          <t>BlackHaddock(13,427)
 🇬🇧The County Time Forgot, England
 1.2August 8, 2013
 Clear 400ml bottle: BBD 30 Dec 2013. This bottle was bought in an iffy Asian Supermarket close to where I live, however it would appear the bottle has had an exciting life. The bottom o…
@@ -9558,7 +9558,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Idiosynkrasie(14,583)
+          <t>Idiosynkrasie(14,591)
 🇩🇪Bielefeld, Germany
 1.3March 2, 2013
 330ml bottle [Thanx Dennis]. Clear reddish amber colour with small, collapsing, white head. Artificial fruity aroma has notes of strawberry and lime. Taste is sweet, notes of artificial…
@@ -9628,7 +9628,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Camons(19,560)
+          <t>Camons(19,608)
 🇩🇰Hasselager, Denmark
 2.4February 10, 2013
 Bottle @ Home. Pours reddish dark amber with a offwhite / very light pink head. Aroma of artificial red fruit, cherry, grapefruit. Flavor of sweet sodalike, artificial fruit, artificial sweeteners,…
@@ -9698,7 +9698,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Leighton(31,545)
+          <t>Leighton(31,549)
 🇬🇧London, England
 2.5January 19, 2013
 Bottle at the ChrisO Holiday Tasting, London - thanks to some unkind individual. Pours clear pink with a fine, white foam head. Fruity-berry malt nose, light bread. Big sugary flavor, berries.…
@@ -9768,7 +9768,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>gunnfryd(19,756)
+          <t>gunnfryd(19,769)
 🇳🇴Kristiansand, Norway
 1.1January 10, 2013
 Can. Red-orange colour with a pink head. Aroma is sour, sweet berries, cherry coke mixed with fant. Flavour is sugar, cherry coke mixed with fanta and malt. Why ?
@@ -10046,7 +10046,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>tommann(6,581)
+          <t>tommann(6,588)
 🇬🇧Stourbridge, England
 2.0December 7, 2012
 400ml bottle at 6%.  Pours pinky, reddy brown with a thin head.  Aroma is cough sweets, guarana and orange.  Taste is sweet, with orange and guarana in the finish.  Alcopop fizzy mouthfeel.
@@ -10115,7 +10115,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Beer5000(9,989)
+          <t>Beer5000(9,991)
 🇳🇴Kristiansand, Norway
 1.5November 6, 2012
 330 ml can. A reddish amber body with a big, creamy off-white head. Have to admit it looks quite fantastic. Strong aroma of artificial fruit and berries with soda pop. No beer in the aroma,…
@@ -10185,7 +10185,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>yngwie(21,033)
+          <t>yngwie(21,039)
 🇳🇴Kristiansand, Norway
 1.3October 17, 2012
 Can. It’s a clear, reddish orange beer topped by a small, dense, off-white head. Fruity, citrusy nose with white sugar. Something malty in the back, but most of all it’s artificial. It’s soft on the…
@@ -10395,7 +10395,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>fonefan(70,891)
+          <t>fonefan(70,960)
 🇩🇰VestJylland, Denmark
 2.1August 27, 2012
 Can 500ml. @ PBF2012.
@@ -10674,7 +10674,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>zacgillbanks(8,311)
+          <t>zacgillbanks(8,315)
 🇬🇧England
 0.9July 30, 2012
 Bottle from Intermarche Supermarket, Les Charmilles, France. A red beer with no head. It has chemical cherry and strawberry flavours with a tart pleasant red fruity finish.
@@ -10953,7 +10953,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Grzesiek79(6,707)
+          <t>Grzesiek79(6,711)
 🇵🇱Radom, Poland
 2.9July 15, 2012
 Trochę lepszy od wersji podstawowej. Rozgrzewa za sprawą guarany i zawartej w nim kofeinie. Obficie musujące, szemrzące bąbelki utrzymują się dość długo. Intensywny…
@@ -11305,7 +11305,7 @@
           <t>Joakgust(1,698)
 🇸🇪Stockholm, Sweden
 2.2March 10, 2012
-Bottle, 33 cl - Clear red beer with a small white head. Aroma is fruity with notes of strawberry, hay and some artificial berries. Flavor is fruity with notes of strawberry, corn and some tequil…
+Bottle, 33 cl - Clear red beer with a small white head. Aroma is fruity with notes of strawberry, hay and some artificial berries. Flavor is fruity with notes of strawberry, corn and some tequila…
 Show more
 Aroma
 3
@@ -11441,7 +11441,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>HenrikSoegaard(19,302)
+          <t>HenrikSoegaard(19,307)
 🇩🇰Randers, Denmark
 1.6September 6, 2011
 Can courtesy Sdr. Borup. Frothy white good mostly lasting head. Red-yellow colour. Light malty and hoppy aroma. Light bitter flavor. Short light bitter finish. Watery palate. Bad stuff.
@@ -11510,7 +11510,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>saxo(26,159)
+          <t>saxo(26,163)
 🇩🇰Over Hornbæk, Randers, Denmark
 1.4September 5, 2011
 Can. Nice head with good duration. Color is orange. Aroma and taste are lime, guarana, fruits and malt.
@@ -11649,7 +11649,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Nisse666(13,625)
+          <t>Nisse666(13,627)
 🇸🇪Göteborg, Sweden
 3.2August 21, 2010
 Can bought in Lattes France, consumed in La Grande Motte 2010-08-10…
@@ -11719,7 +11719,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>jaghana(7,691)
+          <t>jaghana(7,692)
 🇫🇷Strasbourg (Alsace), France
 2.3July 15, 2010
 Can 50cl. A reddish ale with a pink head ! Smell is sugary and syrupy. The first tastes are not bad with medium body but quickly some acid aroma is coming near Gini or Indian…
@@ -11929,7 +11929,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>fiulijn(27,657)
+          <t>fiulijn(27,674)
 🇨🇦Vancouver, Canada
 1.7April 15, 2010
 Tasting at Papsø, can
@@ -12000,7 +12000,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>joergen(39,716)
+          <t>joergen(39,740)
 🇩🇰Frederiksberg, Denmark
 1.7April 5, 2010
 Can at Papsø.
@@ -12141,7 +12141,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Ungstrup(48,901)
+          <t>Ungstrup(48,915)
 🇩🇰Citizen of the universe, Denmark
 2.7April 3, 2010
 Can. A red beer with a beige-tan head. The aroma has notes of berries and tequila. The flavor is very sweet with strong notes of raspberries and tequila, leading to a dry alcoholic finish.
@@ -12419,7 +12419,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Marko(14,001)
+          <t>Marko(14,025)
 🇨🇿Prague, Czech Republic
 1.8November 30, 2009
 Bottle found somewhere in France, purchased and shared with heavy.  Poured an odd red body maybe tinged with orange/amber. Slightly pinkish off white head.  Malty nose,…
@@ -12489,7 +12489,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>omhper(35,539)
+          <t>omhper(35,615)
 🇸🇪Tyresö, Sweden
 1.1August 18, 2009
 Bottled.  Clear red, pink head. Concentrated somehwat artificial berry aroma. Very sweet with lots of berry flavour and some alcohol behind. No beer to be found anywhere. Not at all as…
@@ -12699,7 +12699,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Pinball(13,783)
+          <t>Pinball(13,785)
 🇩🇰Copenhagen, Denmark
 3.1July 8, 2009
 can shared by faroeviking.
@@ -12770,7 +12770,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>DeanF(10,049)
+          <t>DeanF(10,067)
 🇨🇦New Westminster, Canada
 0.9July 3, 2009
 Looks like pop with a pinkish head. Smells like cherries with a hint of alcohol. Tastes like carbonated cherry pop, with a hint of rotten cherries and hops waay at the back. This isn’t beer.
@@ -12839,7 +12839,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>bhensonb(20,708)
+          <t>bhensonb(20,716)
 🇺🇸Woodland, United States
 2.3April 24, 2009
 Can from the Marais Monoprix. The color is strawberry; and the massive frothy head is pink tinged. Smells a bit like pink seven-up - must be citrus. Damn stuff laces a little. Medium body…
@@ -12909,7 +12909,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>ogivlado(14,037)
+          <t>ogivlado(14,052)
 🇭🇷Zagreb, Croatia
 1.5March 17, 2009
 Canned(500ml). -Shiny red coloured, medium sized pinkish head, artificial guarana and exotic fruits nose. The taste is basicly the same as nose is; industrial and artificial. Sweet…
